--- a/エクセル/ギア比.xlsx
+++ b/エクセル/ギア比.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D374CA75-9C2A-4693-A692-A4119339334B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A44C5E5-3B48-4CB2-A39C-20672729CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="-735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31620" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8</v>
       </c>
@@ -393,7 +393,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>80</v>
       </c>
@@ -405,14 +405,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <f>H5/H4*I5/I4*J5/J4</f>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/エクセル/ギア比.xlsx
+++ b/エクセル/ギア比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A44C5E5-3B48-4CB2-A39C-20672729CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651FD593-A207-4987-B1CE-44677382332B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -413,10 +413,10 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -427,14 +427,14 @@
         <v>80</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J5">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <f>H5/H4*I5/I4*J5/J4</f>
-        <v>70</v>
+        <v>250.10204081632654</v>
       </c>
     </row>
   </sheetData>

--- a/エクセル/ギア比.xlsx
+++ b/エクセル/ギア比.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651FD593-A207-4987-B1CE-44677382332B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB84DB3-B1B6-4116-BE97-4DCB21F1E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -413,10 +413,10 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -427,14 +427,30 @@
         <v>80</v>
       </c>
       <c r="I5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <f>H5/H4*I5/I4*J5/J4</f>
-        <v>250.10204081632654</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/エクセル/ギア比.xlsx
+++ b/エクセル/ギア比.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzho\Documents\srdc\srdc_2\エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB84DB3-B1B6-4116-BE97-4DCB21F1E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE77FE94-DBEE-4E33-B208-824FE609BCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,7 +91,7 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,7 +372,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
